--- a/data/toxicities/raw/Shumway_1995_Table12_finereader.xlsx
+++ b/data/toxicities/raw/Shumway_1995_Table12_finereader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/toxicities/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469C294E-8ACF-1646-BE00-C437A14A19B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7322F3-18B4-2B48-A240-B25814E2D0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="315">
   <si>
     <t>Gonyaulax tamarensis</t>
   </si>
@@ -965,6 +965,9 @@
   </si>
   <si>
     <t>N. impressus crab</t>
+  </si>
+  <si>
+    <t>Natica sp.</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1063,13 +1066,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,7 +1389,7 @@
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2223,7 +2225,9 @@
       <c r="C22" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="E22" s="14" t="s">
         <v>42</v>
       </c>
@@ -2277,7 +2281,6 @@
       <c r="I23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="18"/>
       <c r="K23" s="3" t="s">
         <v>25</v>
       </c>
@@ -2315,7 +2318,6 @@
       <c r="I24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="18"/>
       <c r="K24" s="7" t="s">
         <v>25</v>
       </c>
@@ -2353,7 +2355,6 @@
       <c r="I25" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="18"/>
       <c r="K25" s="8" t="s">
         <v>52</v>
       </c>
@@ -2428,7 +2429,6 @@
       <c r="I27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="18"/>
       <c r="K27" s="8" t="s">
         <v>52</v>
       </c>
@@ -2466,7 +2466,6 @@
       <c r="I28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="18"/>
       <c r="K28" s="8" t="s">
         <v>52</v>
       </c>
@@ -2980,7 +2979,6 @@
       <c r="I42" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J42" s="18"/>
       <c r="K42" s="8" t="s">
         <v>69</v>
       </c>
@@ -3016,7 +3014,6 @@
       <c r="I43" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J43" s="18"/>
       <c r="K43" s="8" t="s">
         <v>69</v>
       </c>
@@ -3052,7 +3049,6 @@
       <c r="I44" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J44" s="18"/>
       <c r="K44" s="8" t="s">
         <v>69</v>
       </c>
@@ -3088,7 +3084,6 @@
       <c r="I45" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J45" s="18"/>
       <c r="K45" s="8" t="s">
         <v>73</v>
       </c>
@@ -3124,7 +3119,6 @@
       <c r="I46" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J46" s="18"/>
       <c r="K46" s="8" t="s">
         <v>73</v>
       </c>
@@ -3195,7 +3189,6 @@
       <c r="I48" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J48" s="18"/>
       <c r="K48" s="8" t="s">
         <v>73</v>
       </c>
@@ -3231,7 +3224,6 @@
       <c r="I49" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J49" s="18"/>
       <c r="K49" s="8" t="s">
         <v>2</v>
       </c>
@@ -3267,7 +3259,6 @@
       <c r="I50" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J50" s="18"/>
       <c r="K50" s="8" t="s">
         <v>139</v>
       </c>
@@ -3303,7 +3294,6 @@
       <c r="I51" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J51" s="18"/>
       <c r="K51" s="8" t="s">
         <v>2</v>
       </c>
@@ -3339,7 +3329,6 @@
       <c r="I52" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="18"/>
       <c r="K52" s="8" t="s">
         <v>2</v>
       </c>
@@ -3375,7 +3364,6 @@
       <c r="I53" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J53" s="18"/>
       <c r="K53" s="7" t="s">
         <v>12</v>
       </c>
@@ -3446,7 +3434,6 @@
       <c r="I55" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J55" s="18"/>
       <c r="K55" s="8" t="s">
         <v>103</v>
       </c>
@@ -3482,7 +3469,6 @@
       <c r="I56" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="J56" s="18"/>
       <c r="K56" s="8" t="s">
         <v>103</v>
       </c>
@@ -3518,7 +3504,6 @@
       <c r="I57" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J57" s="18"/>
       <c r="K57" s="8" t="s">
         <v>73</v>
       </c>
@@ -3554,7 +3539,6 @@
       <c r="I58" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="J58" s="18"/>
       <c r="K58" s="8" t="s">
         <v>73</v>
       </c>
@@ -3625,7 +3609,6 @@
       <c r="I60" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J60" s="18"/>
       <c r="K60" s="8" t="s">
         <v>73</v>
       </c>
@@ -3661,7 +3644,6 @@
       <c r="I61" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="18"/>
       <c r="K61" s="8" t="s">
         <v>73</v>
       </c>
@@ -3732,7 +3714,6 @@
       <c r="I63" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J63" s="18"/>
       <c r="K63" s="8" t="s">
         <v>139</v>
       </c>
@@ -3768,7 +3749,6 @@
       <c r="I64" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J64" s="18"/>
       <c r="K64" s="8" t="s">
         <v>139</v>
       </c>
@@ -3804,7 +3784,6 @@
       <c r="I65" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J65" s="18"/>
       <c r="K65" s="8" t="s">
         <v>139</v>
       </c>
@@ -3840,7 +3819,6 @@
       <c r="I66" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="18"/>
       <c r="K66" s="8" t="s">
         <v>94</v>
       </c>
@@ -3914,7 +3892,6 @@
       <c r="I68" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J68" s="18"/>
       <c r="K68" s="3" t="s">
         <v>96</v>
       </c>
@@ -3988,7 +3965,6 @@
       <c r="I70" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J70" s="18"/>
       <c r="K70" s="8" t="s">
         <v>97</v>
       </c>
@@ -4024,7 +4000,6 @@
       <c r="I71" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J71" s="18"/>
       <c r="K71" s="8" t="s">
         <v>97</v>
       </c>
@@ -4095,7 +4070,6 @@
       <c r="I73" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="J73" s="18"/>
       <c r="K73" s="8" t="s">
         <v>143</v>
       </c>
@@ -4131,7 +4105,6 @@
       <c r="I74" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J74" s="18"/>
       <c r="K74" s="8" t="s">
         <v>143</v>
       </c>
@@ -4167,7 +4140,6 @@
       <c r="I75" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J75" s="18"/>
       <c r="K75" s="8" t="s">
         <v>143</v>
       </c>
@@ -4203,7 +4175,6 @@
       <c r="I76" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J76" s="18"/>
       <c r="K76" s="8" t="s">
         <v>152</v>
       </c>
@@ -4274,7 +4245,6 @@
       <c r="I78" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J78" s="18"/>
       <c r="K78" s="8" t="s">
         <v>103</v>
       </c>
@@ -4310,7 +4280,6 @@
       <c r="I79" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J79" s="18"/>
       <c r="K79" s="8" t="s">
         <v>73</v>
       </c>
@@ -4346,7 +4315,6 @@
       <c r="I80" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="J80" s="18"/>
       <c r="K80" s="8" t="s">
         <v>73</v>
       </c>
@@ -4382,7 +4350,6 @@
       <c r="I81" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J81" s="18"/>
       <c r="K81" s="8" t="s">
         <v>105</v>
       </c>
@@ -4418,7 +4385,6 @@
       <c r="I82" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J82" s="18"/>
       <c r="K82" s="8" t="s">
         <v>107</v>
       </c>
@@ -4454,7 +4420,6 @@
       <c r="I83" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J83" s="18"/>
       <c r="K83" s="8" t="s">
         <v>107</v>
       </c>
@@ -4490,7 +4455,6 @@
       <c r="I84" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J84" s="18"/>
       <c r="K84" s="8" t="s">
         <v>107</v>
       </c>
@@ -4526,7 +4490,6 @@
       <c r="I85" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J85" s="18"/>
       <c r="K85" s="8" t="s">
         <v>107</v>
       </c>
@@ -4562,7 +4525,6 @@
       <c r="I86" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J86" s="18"/>
       <c r="K86" s="8" t="s">
         <v>107</v>
       </c>
@@ -4598,7 +4560,6 @@
       <c r="I87" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J87" s="18"/>
       <c r="K87" s="8" t="s">
         <v>107</v>
       </c>
@@ -4707,7 +4668,6 @@
       <c r="I90" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J90" s="18"/>
       <c r="K90" s="3" t="s">
         <v>107</v>
       </c>
